--- a/q1_dataFiles/08_Kontraste.xlsx
+++ b/q1_dataFiles/08_Kontraste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B70F69-31BD-46A5-941E-E83235AC7B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3364DC30-42D3-4D0D-9633-F14E4B2E7E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Kontraste" sheetId="3" r:id="rId1"/>
@@ -153,8 +153,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -651,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -681,6 +682,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1726,6 +1731,349 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effektgrößen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Cohen's d) und 95% KIs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>' Kontraste Lösung'!$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>' Kontraste Lösung'!$U$32:$U$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.58130845464485947</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.72766159579215905</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>' Kontraste Lösung'!$U$32:$U$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.58130845464485947</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.72766159579215905</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:yVal>
+            <c:numRef>
+              <c:f>' Kontraste Lösung'!$O$32:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.7609621363882688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0079366288813629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CC4-44A1-8CCF-E64A16ADC060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="526978768"/>
+        <c:axId val="526981064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="526978768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526981064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="526981064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526978768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2185,7 +2533,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2788,6 +3136,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3834,6 +4222,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4336,7 +5240,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5258,16 +6162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>437861</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152249</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647411</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5290,7 +6194,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13944600" y="9801225"/>
+          <a:off x="12268200" y="9867900"/>
           <a:ext cx="2314286" cy="1209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5720,16 +6624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>437861</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152249</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>923636</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5752,7 +6656,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13515975" y="9801225"/>
+          <a:off x="13068300" y="9963150"/>
           <a:ext cx="2314286" cy="1209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5762,10 +6666,101 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678AD937-931E-4608-B742-72FBDF821D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10417</cdr:x>
+      <cdr:y>0.55903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96875</cdr:x>
+      <cdr:y>0.55903</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Gerader Verbinder 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0E7703-A41C-4A50-9574-EABE4D774D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="476250" y="1533525"/>
+          <a:ext cx="3952875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6078,7 +7073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6233,7 +7228,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>H0,1: D_Trend_quadr = 0, H0,1: D =/= 0</a:t>
+            <a:t>H0,2: D_Trend_quadr = 0, H1,2: D =/= 0</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE">
             <a:effectLst/>
@@ -6362,6 +7357,106 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerader Verbinder 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8960D1E4-DC10-4A5E-8ED8-894575E0999D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="7962900"/>
+          <a:ext cx="1562100" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Gerader Verbinder 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525C862-D010-4B16-A80B-A94975B3AFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5810250" y="7010400"/>
+          <a:ext cx="1552575" cy="962026"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -6682,8 +7777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A23:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,10 +9977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A23:T203"/>
+  <dimension ref="A23:U203"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8897,7 +9992,7 @@
     <col min="19" max="19" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8908,7 +10003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -8922,7 +10017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8972,7 +10067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9033,7 +10128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -9094,7 +10189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -9120,7 +10215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -9153,7 +10248,7 @@
         <v>0.19048863248357198</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -9164,7 +10259,7 @@
         <v>0.59219999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -9196,7 +10291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -9233,8 +10328,12 @@
         <f>SUM(G28:H28)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f>(R32-Q32)/2</f>
+        <v>0.58130845464485947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -9271,8 +10370,12 @@
         <f>H28</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f>(R33-Q33)/2</f>
+        <v>0.72766159579215905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -9283,7 +10386,7 @@
         <v>0.74480000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -9293,8 +10396,12 @@
       <c r="C35">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P35" s="12">
+        <f>SQRT((S32+T32)/(S32*T32)+(O32^2)/(2*(S32+T32)))</f>
+        <v>0.29658594624737716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>
@@ -9305,7 +10412,7 @@
         <v>0.58020000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -9316,7 +10423,7 @@
         <v>0.52210000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15</v>
       </c>
@@ -9327,7 +10434,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -9338,7 +10445,7 @@
         <v>0.85740000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -9349,7 +10456,7 @@
         <v>0.59960000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18</v>
       </c>
@@ -9360,7 +10467,7 @@
         <v>0.1067</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -9371,7 +10478,7 @@
         <v>0.64029999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20</v>
       </c>
@@ -9382,7 +10489,7 @@
         <v>0.40539999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
@@ -9393,7 +10500,7 @@
         <v>0.28639999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -9404,7 +10511,7 @@
         <v>0.45639999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23</v>
       </c>
@@ -9415,7 +10522,7 @@
         <v>0.29480000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>24</v>
       </c>
@@ -9426,7 +10533,7 @@
         <v>0.35420000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25</v>
       </c>
@@ -11152,7 +12259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B8BA1-2D37-4002-906C-A7EAAC4731F5}">
   <dimension ref="A23:S203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -13313,8 +14420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A23:S203"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13427,13 +14534,13 @@
         <v>35</v>
       </c>
       <c r="K26" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N26" s="3">
         <f>SUM(K26:M26)</f>
@@ -13441,18 +14548,18 @@
       </c>
       <c r="O26" s="3">
         <f>SUMPRODUCT($F$26:$H$26,K26:M26)</f>
-        <v>1.3838866666666667</v>
+        <v>-1.3838866666666667</v>
       </c>
       <c r="P26" s="4">
         <f>O26/(L$29*SQRT((K26^2+L26^2+M26^2)/F$28))</f>
-        <v>39.791662866251919</v>
+        <v>-39.791662866251919</v>
       </c>
       <c r="Q26" s="4">
         <f>_xlfn.T.INV(1-0.05,SUM($F$28:$H$28)-3)</f>
         <v>1.65350800180123</v>
       </c>
       <c r="R26" s="6">
-        <f>_xlfn.T.DIST.RT(P26,SUM($F$28:$H$28)-3)</f>
+        <f>_xlfn.T.DIST(P26,SUM($F$28:$H$28)-3,TRUE)</f>
         <v>1.6165649598982169E-90</v>
       </c>
       <c r="S26" t="s">
@@ -13508,12 +14615,12 @@
         <f>O27/(L$29*SQRT((K27^2+L27^2+M27^2)/F$28))</f>
         <v>8.6992449827675742</v>
       </c>
-      <c r="Q27" s="5">
-        <f>_xlfn.T.INV(1-0.025,SUM($F$28:$H$28)-3)</f>
+      <c r="Q27" s="11">
+        <f>_xlfn.T.INV.2T(0.05,177)</f>
         <v>1.9734572015938039</v>
       </c>
       <c r="R27" s="5">
-        <f>_xlfn.T.DIST.2T(P27,SUM($F$28:$H$28)-3)</f>
+        <f>_xlfn.T.DIST.2T(P27,177)</f>
         <v>2.2502367934595399E-15</v>
       </c>
       <c r="S27" s="1" t="s">

--- a/q1_dataFiles/08_Kontraste.xlsx
+++ b/q1_dataFiles/08_Kontraste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3364DC30-42D3-4D0D-9633-F14E4B2E7E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F3758-2346-4883-8F5B-239D025A497C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Kontraste" sheetId="3" r:id="rId1"/>
@@ -19,16 +19,6 @@
     <sheet name="Trends Lösung" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -155,7 +145,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -682,7 +672,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -823,7 +813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1024,7 +1014,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1056,7 +1046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2046742768"/>
@@ -1136,7 +1126,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1167,7 +1157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050511504"/>
@@ -1215,7 +1205,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1305,7 +1295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1506,7 +1496,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1538,7 +1528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2046742768"/>
@@ -1618,7 +1608,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1649,7 +1639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050511504"/>
@@ -1697,7 +1687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1778,7 +1768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1991,7 +1981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="526978768"/>
@@ -2039,7 +2029,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2130,7 +2120,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2331,7 +2321,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2363,7 +2353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2046742768"/>
@@ -2443,7 +2433,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2474,7 +2464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050511504"/>
@@ -2522,7 +2512,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2612,7 +2602,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2813,7 +2803,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2845,7 +2835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2046742768"/>
@@ -2925,7 +2915,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2956,7 +2946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050511504"/>
@@ -3004,7 +2994,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7228,9 +7218,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>H0,2: D_Trend_quadr = 0, H1,2: D =/= 0</a:t>
+            <a:t>H0,1: D_Trend_quadr = 0, H0,1: D =/= 0</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE">
+          <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -9979,7 +9969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A23:U203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -12259,7 +12249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B8BA1-2D37-4002-906C-A7EAAC4731F5}">
   <dimension ref="A23:S203"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -14420,8 +14410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A23:S203"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14534,13 +14524,13 @@
         <v>35</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3">
         <f>SUM(K26:M26)</f>
@@ -14548,18 +14538,18 @@
       </c>
       <c r="O26" s="3">
         <f>SUMPRODUCT($F$26:$H$26,K26:M26)</f>
-        <v>-1.3838866666666667</v>
+        <v>1.3838866666666667</v>
       </c>
       <c r="P26" s="4">
         <f>O26/(L$29*SQRT((K26^2+L26^2+M26^2)/F$28))</f>
-        <v>-39.791662866251919</v>
+        <v>39.791662866251919</v>
       </c>
       <c r="Q26" s="4">
         <f>_xlfn.T.INV(1-0.05,SUM($F$28:$H$28)-3)</f>
         <v>1.65350800180123</v>
       </c>
       <c r="R26" s="6">
-        <f>_xlfn.T.DIST(P26,SUM($F$28:$H$28)-3,TRUE)</f>
+        <f>_xlfn.T.DIST.RT(P26,SUM(F28:H28)-3)</f>
         <v>1.6165649598982169E-90</v>
       </c>
       <c r="S26" t="s">
